--- a/medicine/Enfance/César_et_Capucine/César_et_Capucine.xlsx
+++ b/medicine/Enfance/César_et_Capucine/César_et_Capucine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_et_Capucine</t>
+          <t>César_et_Capucine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">César et Capucine est une série d'animation de 52 épisodes de 8 minutes (une saison) réalisée par Marc Boréal[1], créée par le dessinateur Tébo, produite par Futurikon et diffusée à la rentrée 2015 sur France 5 dans l'émission Zouzous[2].
-Série didactique vivant à faire accepter les tâches quotidiennes aux enfants de 4 à 6 ans[3], elle a été qualifiée de « bon moyen de faire comprendre aux enfants que les messages des adultes ne sont pas des contraintes pour les embêter[4] ».
-Le dessinateur Tébo a adapté la série animée en livre jeunesse en mai 2017 pour les éditions Bamboo[5], quelques mois après le lancement de la production d'une nouvelle saison[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">César et Capucine est une série d'animation de 52 épisodes de 8 minutes (une saison) réalisée par Marc Boréal, créée par le dessinateur Tébo, produite par Futurikon et diffusée à la rentrée 2015 sur France 5 dans l'émission Zouzous.
+Série didactique vivant à faire accepter les tâches quotidiennes aux enfants de 4 à 6 ans, elle a été qualifiée de « bon moyen de faire comprendre aux enfants que les messages des adultes ne sont pas des contraintes pour les embêter ».
+Le dessinateur Tébo a adapté la série animée en livre jeunesse en mai 2017 pour les éditions Bamboo, quelques mois après le lancement de la production d'une nouvelle saison.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_et_Capucine</t>
+          <t>César_et_Capucine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">César et Capucine sont un frère et une sœur de cinq et quatre ans porté par un amour commun des jeux malgré des caractères opposés[6]. Confronté à différents ordres de la part des adultes, ils s'échappent dans un monde magique empli d'animaux fantastiques qui les aident à accepter les contraintes de la vie quotidienne[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">César et Capucine sont un frère et une sœur de cinq et quatre ans porté par un amour commun des jeux malgré des caractères opposés. Confronté à différents ordres de la part des adultes, ils s'échappent dans un monde magique empli d'animaux fantastiques qui les aident à accepter les contraintes de la vie quotidienne.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_et_Capucine</t>
+          <t>César_et_Capucine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Saison 1
-On ne veut pas mettre nos casques (ça nous fait une tête de mérou)
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On ne veut pas mettre nos casques (ça nous fait une tête de mérou)
 On ne veut pas prendre nos médicaments (car ils ont un goût de poireaux)
 On veut des histoires qui font peur (on n'est plus des bébés)
 On ne veut pas sortir la poubelle (ça sent les couches de Rose)
@@ -598,9 +617,43 @@
 On veut dessiner sur les murs (une feuille c'est trop petit)
 On veut garder nos déguisements pour dormir (au moins les chapeaux)
 On veut cueillir toutes les fleurs du jardin (pour offrir un vrai bouquet à Maman)
-On veut manger avec les doigts (les couverts ça sert à rien, on a déjà nos mains)
-Saison 2
-On ne veut pas aller se coucher (il fait encore jour)
+On veut manger avec les doigts (les couverts ça sert à rien, on a déjà nos mains)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>César_et_Capucine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9sar_et_Capucine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On ne veut pas aller se coucher (il fait encore jour)
 On ne veut pas laisser Rose monter sur la balançoire (on s'amuse trop bien)
 On ne veut pas mettre un pansement (ça fait trop mal quand on l'enlève)
 On ne veut pas réciter notre poème à Papa (on est timide)
@@ -617,31 +670,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C%C3%A9sar_et_Capucine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>César_et_Capucine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/C%C3%A9sar_et_Capucine</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Livre jeunesse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tébo, César et Capucine, Bamboo, coll. « Bamboo jeunesse » :
 On ne veut pas faire la sieste !, 2017  (ISBN 9782818941478).
